--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_11_5.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_11_5.xlsx
@@ -478,218 +478,218 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_11_5_21</t>
+          <t>model_11_5_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.4106437296091976</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.764724389207267</v>
+        <v>0.09518715775284903</v>
       </c>
       <c r="D2" t="n">
-        <v>-4.554104489443964</v>
+        <v>-1.151154049613713</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.997513535707573</v>
+        <v>0.006537356941730965</v>
       </c>
       <c r="F2" t="n">
-        <v>1.561167001724243</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G2" t="n">
-        <v>5.543050765991211</v>
+        <v>1.041117906570435</v>
       </c>
       <c r="H2" t="n">
-        <v>4.59268045425415</v>
+        <v>0.3009430766105652</v>
       </c>
       <c r="I2" t="n">
-        <v>5.095759391784668</v>
+        <v>0.6928002834320068</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_11_5_20</t>
+          <t>model_11_5_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.4089059435728744</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.842154580422114</v>
+        <v>0.09518715775284903</v>
       </c>
       <c r="D3" t="n">
-        <v>-4.374860817559886</v>
+        <v>-1.151154049613713</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.990188201021532</v>
+        <v>0.006537356941730965</v>
       </c>
       <c r="F3" t="n">
-        <v>1.55924379825592</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G3" t="n">
-        <v>5.657056331634521</v>
+        <v>1.041117906570435</v>
       </c>
       <c r="H3" t="n">
-        <v>4.444464206695557</v>
+        <v>0.3009430766105652</v>
       </c>
       <c r="I3" t="n">
-        <v>5.086421012878418</v>
+        <v>0.6928002834320068</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_11_5_19</t>
+          <t>model_11_5_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.3936397367957352</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.887386278699591</v>
+        <v>0.09518715775284903</v>
       </c>
       <c r="D4" t="n">
-        <v>-4.135062279321411</v>
+        <v>-1.151154049613713</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.94471462817896</v>
+        <v>0.006537356941730965</v>
       </c>
       <c r="F4" t="n">
-        <v>1.542348623275757</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G4" t="n">
-        <v>5.723653793334961</v>
+        <v>1.041117906570435</v>
       </c>
       <c r="H4" t="n">
-        <v>4.246175289154053</v>
+        <v>0.3009430766105652</v>
       </c>
       <c r="I4" t="n">
-        <v>5.028454780578613</v>
+        <v>0.6928002834320068</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_11_5_22</t>
+          <t>model_11_5_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.369002285716499</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.529609956507124</v>
+        <v>0.09518715775284903</v>
       </c>
       <c r="D5" t="n">
-        <v>-4.642492115046599</v>
+        <v>-1.151154049613713</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.880783386783416</v>
+        <v>0.006537356941730965</v>
       </c>
       <c r="F5" t="n">
-        <v>1.515082001686096</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G5" t="n">
-        <v>5.196876049041748</v>
+        <v>1.041117906570435</v>
       </c>
       <c r="H5" t="n">
-        <v>4.665768146514893</v>
+        <v>0.3009430766105652</v>
       </c>
       <c r="I5" t="n">
-        <v>4.946959495544434</v>
+        <v>0.6928002834320068</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_11_5_23</t>
+          <t>model_11_5_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3573959523715222</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.477998323505441</v>
+        <v>0.09518715775284903</v>
       </c>
       <c r="D6" t="n">
-        <v>-4.639065970231543</v>
+        <v>-1.151154049613713</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.848180283662737</v>
+        <v>0.006537356941730965</v>
       </c>
       <c r="F6" t="n">
-        <v>1.502237319946289</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G6" t="n">
-        <v>5.120885372161865</v>
+        <v>1.041117906570435</v>
       </c>
       <c r="H6" t="n">
-        <v>4.662935256958008</v>
+        <v>0.3009430766105652</v>
       </c>
       <c r="I6" t="n">
-        <v>4.905399322509766</v>
+        <v>0.6928002834320068</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_11_5_24</t>
+          <t>model_11_5_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.3370205642687378</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.384547590801569</v>
+        <v>0.09518715775284903</v>
       </c>
       <c r="D7" t="n">
-        <v>-4.636566448273324</v>
+        <v>-1.151154049613713</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.790257580622312</v>
+        <v>0.006537356941730965</v>
       </c>
       <c r="F7" t="n">
-        <v>1.479687809944153</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G7" t="n">
-        <v>4.983291149139404</v>
+        <v>1.041117906570435</v>
       </c>
       <c r="H7" t="n">
-        <v>4.660867691040039</v>
+        <v>0.3009430766105652</v>
       </c>
       <c r="I7" t="n">
-        <v>4.831562995910645</v>
+        <v>0.6928002834320068</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_11_5_18</t>
+          <t>model_11_5_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.3317390600594117</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.848007463681226</v>
+        <v>0.09518715775284903</v>
       </c>
       <c r="D8" t="n">
-        <v>-3.617977111255624</v>
+        <v>-1.151154049613713</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.76275174930565</v>
+        <v>0.006537356941730965</v>
       </c>
       <c r="F8" t="n">
-        <v>1.473842620849609</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G8" t="n">
-        <v>5.665673732757568</v>
+        <v>1.041117906570435</v>
       </c>
       <c r="H8" t="n">
-        <v>3.818598031997681</v>
+        <v>0.3009430766105652</v>
       </c>
       <c r="I8" t="n">
-        <v>4.796500682830811</v>
+        <v>0.6928002834320068</v>
       </c>
     </row>
     <row r="9">
@@ -699,90 +699,90 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.2938761806699728</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.788611221883727</v>
+        <v>0.09518715775284903</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.327230352768793</v>
+        <v>-1.151154049613713</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.637632757868104</v>
+        <v>0.006537356941730965</v>
       </c>
       <c r="F9" t="n">
-        <v>1.431939721107483</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G9" t="n">
-        <v>5.578220844268799</v>
+        <v>1.041117906570435</v>
       </c>
       <c r="H9" t="n">
-        <v>3.578180074691772</v>
+        <v>0.3009430766105652</v>
       </c>
       <c r="I9" t="n">
-        <v>4.637007713317871</v>
+        <v>0.6928002834320068</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_11_5_17</t>
+          <t>model_11_5_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.2859898680177873</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C10" t="n">
-        <v>-2.786343717806848</v>
+        <v>0.09518715775284903</v>
       </c>
       <c r="D10" t="n">
-        <v>-3.30133478886068</v>
+        <v>-1.151154049613713</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.628299087029873</v>
+        <v>0.006537356941730965</v>
       </c>
       <c r="F10" t="n">
-        <v>1.423211812973022</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G10" t="n">
-        <v>5.574882030487061</v>
+        <v>1.041117906570435</v>
       </c>
       <c r="H10" t="n">
-        <v>3.556766986846924</v>
+        <v>0.3009430766105652</v>
       </c>
       <c r="I10" t="n">
-        <v>4.625109672546387</v>
+        <v>0.6928002834320068</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_11_5_15</t>
+          <t>model_11_5_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.2804177682642774</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C11" t="n">
-        <v>-2.781940921742122</v>
+        <v>0.09518715775284903</v>
       </c>
       <c r="D11" t="n">
-        <v>-3.210655939588919</v>
+        <v>-1.151154049613713</v>
       </c>
       <c r="E11" t="n">
-        <v>-2.597989925907735</v>
+        <v>0.006537356941730965</v>
       </c>
       <c r="F11" t="n">
-        <v>1.41704523563385</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G11" t="n">
-        <v>5.568399429321289</v>
+        <v>1.041117906570435</v>
       </c>
       <c r="H11" t="n">
-        <v>3.481784820556641</v>
+        <v>0.3009430766105652</v>
       </c>
       <c r="I11" t="n">
-        <v>4.586473941802979</v>
+        <v>0.6928002834320068</v>
       </c>
     </row>
     <row r="12">
@@ -792,90 +792,90 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.2341215475773639</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.759016217207525</v>
+        <v>0.09518715775284903</v>
       </c>
       <c r="D12" t="n">
-        <v>-2.78068763175779</v>
+        <v>-1.151154049613713</v>
       </c>
       <c r="E12" t="n">
-        <v>-2.452805316833736</v>
+        <v>0.006537356941730965</v>
       </c>
       <c r="F12" t="n">
-        <v>1.365808725357056</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G12" t="n">
-        <v>5.534646034240723</v>
+        <v>1.041117906570435</v>
       </c>
       <c r="H12" t="n">
-        <v>3.126244783401489</v>
+        <v>0.3009430766105652</v>
       </c>
       <c r="I12" t="n">
-        <v>4.401401996612549</v>
+        <v>0.6928002834320068</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_11_5_14</t>
+          <t>model_11_5_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.2292068937450176</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C13" t="n">
-        <v>-2.753254995772539</v>
+        <v>0.09518715775284903</v>
       </c>
       <c r="D13" t="n">
-        <v>-2.751020433558098</v>
+        <v>-1.151154049613713</v>
       </c>
       <c r="E13" t="n">
-        <v>-2.440083184542471</v>
+        <v>0.006537356941730965</v>
       </c>
       <c r="F13" t="n">
-        <v>1.360369920730591</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G13" t="n">
-        <v>5.526163101196289</v>
+        <v>1.041117906570435</v>
       </c>
       <c r="H13" t="n">
-        <v>3.101712942123413</v>
+        <v>0.3009430766105652</v>
       </c>
       <c r="I13" t="n">
-        <v>4.385185241699219</v>
+        <v>0.6928002834320068</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_11_5_11</t>
+          <t>model_11_5_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.2066245627138419</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C14" t="n">
-        <v>-2.783418609466377</v>
+        <v>0.09518715775284903</v>
       </c>
       <c r="D14" t="n">
-        <v>-2.315817758686532</v>
+        <v>-1.151154049613713</v>
       </c>
       <c r="E14" t="n">
-        <v>-2.325747521129338</v>
+        <v>0.006537356941730965</v>
       </c>
       <c r="F14" t="n">
-        <v>1.335377812385559</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G14" t="n">
-        <v>5.57057523727417</v>
+        <v>1.041117906570435</v>
       </c>
       <c r="H14" t="n">
-        <v>2.741844654083252</v>
+        <v>0.3009430766105652</v>
       </c>
       <c r="I14" t="n">
-        <v>4.239437103271484</v>
+        <v>0.6928002834320068</v>
       </c>
     </row>
     <row r="15">
@@ -885,369 +885,369 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.1834520033802103</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C15" t="n">
-        <v>-2.655958034584664</v>
+        <v>0.09518715775284903</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.300091741203511</v>
+        <v>-1.151154049613713</v>
       </c>
       <c r="E15" t="n">
-        <v>-2.243020646239791</v>
+        <v>0.006537356941730965</v>
       </c>
       <c r="F15" t="n">
-        <v>1.309732675552368</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G15" t="n">
-        <v>5.382906436920166</v>
+        <v>1.041117906570435</v>
       </c>
       <c r="H15" t="n">
-        <v>2.728840827941895</v>
+        <v>0.3009430766105652</v>
       </c>
       <c r="I15" t="n">
-        <v>4.133983135223389</v>
+        <v>0.6928002834320068</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_11_5_12</t>
+          <t>model_11_5_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1531063875300902</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C16" t="n">
-        <v>-2.631961821183206</v>
+        <v>0.09518715775284903</v>
       </c>
       <c r="D16" t="n">
-        <v>-2.245577560006796</v>
+        <v>-1.151154049613713</v>
       </c>
       <c r="E16" t="n">
-        <v>-2.211690630568945</v>
+        <v>0.006537356941730965</v>
       </c>
       <c r="F16" t="n">
-        <v>1.276149034500122</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G16" t="n">
-        <v>5.347575664520264</v>
+        <v>1.041117906570435</v>
       </c>
       <c r="H16" t="n">
-        <v>2.683763027191162</v>
+        <v>0.3009430766105652</v>
       </c>
       <c r="I16" t="n">
-        <v>4.094045639038086</v>
+        <v>0.6928002834320068</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_11_5_9</t>
+          <t>model_11_5_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.114282529556905</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C17" t="n">
-        <v>-2.516586988673756</v>
+        <v>0.09518715775284903</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.892733073550669</v>
+        <v>-1.151154049613713</v>
       </c>
       <c r="E17" t="n">
-        <v>-2.03344012046663</v>
+        <v>0.006537356941730965</v>
       </c>
       <c r="F17" t="n">
-        <v>1.233182311058044</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G17" t="n">
-        <v>5.177701473236084</v>
+        <v>1.041117906570435</v>
       </c>
       <c r="H17" t="n">
-        <v>2.391996383666992</v>
+        <v>0.3009430766105652</v>
       </c>
       <c r="I17" t="n">
-        <v>3.866823434829712</v>
+        <v>0.6928002834320068</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_11_5_8</t>
+          <t>model_11_5_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.001753020527306637</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C18" t="n">
-        <v>-2.472337962638482</v>
+        <v>0.09518715775284903</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.8173756491284359</v>
+        <v>-1.151154049613713</v>
       </c>
       <c r="E18" t="n">
-        <v>-1.67805588901034</v>
+        <v>0.006537356941730965</v>
       </c>
       <c r="F18" t="n">
-        <v>1.108645439147949</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G18" t="n">
-        <v>5.112550735473633</v>
+        <v>1.041117906570435</v>
       </c>
       <c r="H18" t="n">
-        <v>1.502785205841064</v>
+        <v>0.3009430766105652</v>
       </c>
       <c r="I18" t="n">
-        <v>3.413803815841675</v>
+        <v>0.6928002834320068</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_11_5_7</t>
+          <t>model_11_5_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.005009561358367387</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C19" t="n">
-        <v>-2.470701348226314</v>
+        <v>0.09518715775284903</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.7393493214723921</v>
+        <v>-1.151154049613713</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.653271338204263</v>
+        <v>0.006537356941730965</v>
       </c>
       <c r="F19" t="n">
-        <v>1.101161241531372</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G19" t="n">
-        <v>5.110141277313232</v>
+        <v>1.041117906570435</v>
       </c>
       <c r="H19" t="n">
-        <v>1.438265323638916</v>
+        <v>0.3009430766105652</v>
       </c>
       <c r="I19" t="n">
-        <v>3.382210731506348</v>
+        <v>0.6928002834320068</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_11_5_4</t>
+          <t>model_11_5_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.04071300328141936</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.553356683300854</v>
+        <v>0.09518715775284903</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.295289303057827</v>
+        <v>-1.151154049613713</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.262025885230218</v>
+        <v>0.006537356941730965</v>
       </c>
       <c r="F20" t="n">
-        <v>1.06164813041687</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G20" t="n">
-        <v>3.759474515914917</v>
+        <v>1.041117906570435</v>
       </c>
       <c r="H20" t="n">
-        <v>1.897971272468567</v>
+        <v>0.3009430766105652</v>
       </c>
       <c r="I20" t="n">
-        <v>2.883477210998535</v>
+        <v>0.6928002834320068</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_11_5_6</t>
+          <t>model_11_5_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.06520364346066654</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C21" t="n">
-        <v>-2.306795528239527</v>
+        <v>0.09518715775284903</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.3844366446614673</v>
+        <v>-1.151154049613713</v>
       </c>
       <c r="E21" t="n">
-        <v>-1.444654289565138</v>
+        <v>0.006537356941730965</v>
       </c>
       <c r="F21" t="n">
-        <v>1.034544110298157</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G21" t="n">
-        <v>4.86881160736084</v>
+        <v>1.041117906570435</v>
       </c>
       <c r="H21" t="n">
-        <v>1.144788503646851</v>
+        <v>0.3009430766105652</v>
       </c>
       <c r="I21" t="n">
-        <v>3.116279602050781</v>
+        <v>0.6928002834320068</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_11_5_5</t>
+          <t>model_11_5_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1278072627042434</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C22" t="n">
-        <v>-2.049681841681963</v>
+        <v>0.09518715775284903</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.3095053553086233</v>
+        <v>-1.151154049613713</v>
       </c>
       <c r="E22" t="n">
-        <v>-1.264560837172724</v>
+        <v>0.006537356941730965</v>
       </c>
       <c r="F22" t="n">
-        <v>0.96526038646698</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G22" t="n">
-        <v>4.490246295928955</v>
+        <v>1.041117906570435</v>
       </c>
       <c r="H22" t="n">
-        <v>1.082828044891357</v>
+        <v>0.3009430766105652</v>
       </c>
       <c r="I22" t="n">
-        <v>2.886708736419678</v>
+        <v>0.6928002834320068</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_11_5_3</t>
+          <t>model_11_5_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1972055573509877</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.8467901675906546</v>
+        <v>0.09518715775284903</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.9242126066197174</v>
+        <v>-1.151154049613713</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.7166876408948715</v>
+        <v>0.006537356941730965</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8884568810462952</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G23" t="n">
-        <v>2.719150304794312</v>
+        <v>1.041117906570435</v>
       </c>
       <c r="H23" t="n">
-        <v>1.591128468513489</v>
+        <v>0.3009430766105652</v>
       </c>
       <c r="I23" t="n">
-        <v>2.188317060470581</v>
+        <v>0.6928002834320068</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_11_5_2</t>
+          <t>model_11_5_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2689381759491897</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.4169792017803757</v>
+        <v>0.09518715775284903</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.6047748065533751</v>
+        <v>-1.151154049613713</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.3563532925638691</v>
+        <v>0.006537356941730965</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8090700507164001</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G24" t="n">
-        <v>2.086311340332031</v>
+        <v>1.041117906570435</v>
       </c>
       <c r="H24" t="n">
-        <v>1.326985836029053</v>
+        <v>0.3009430766105652</v>
       </c>
       <c r="I24" t="n">
-        <v>1.728987216949463</v>
+        <v>0.6928002834320068</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_11_5_1</t>
+          <t>model_11_5_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.3404314228628903</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.1632283886033361</v>
+        <v>0.09518715775284903</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.3710724423926883</v>
+        <v>-1.151154049613713</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.1298658575290328</v>
+        <v>0.006537356941730965</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7299480438232422</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G25" t="n">
-        <v>1.712697505950928</v>
+        <v>1.041117906570435</v>
       </c>
       <c r="H25" t="n">
-        <v>1.133737683296204</v>
+        <v>0.3009430766105652</v>
       </c>
       <c r="I25" t="n">
-        <v>1.440276384353638</v>
+        <v>0.6928002834320068</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_11_5_0</t>
+          <t>model_11_5_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.3715789957028929</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8978629778162166</v>
+        <v>0.09518715775284903</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5395281667865315</v>
+        <v>-1.151154049613713</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7969797160002432</v>
+        <v>0.006537356941730965</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6954769492149353</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1503830552101135</v>
+        <v>1.041117906570435</v>
       </c>
       <c r="H26" t="n">
-        <v>0.3807634115219116</v>
+        <v>0.3009430766105652</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2587964832782745</v>
+        <v>0.6928002834320068</v>
       </c>
     </row>
   </sheetData>
